--- a/results/mp/logistic/corona/confidence/42/desired-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/desired-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="141">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,165 +40,189 @@
     <t>name</t>
   </si>
   <si>
+    <t>warned</t>
+  </si>
+  <si>
     <t>killed</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>hell</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>drop</t>
   </si>
   <si>
     <t>kill</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>slash</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>worse</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>cuts</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>low</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
   <si>
     <t>ridiculous</t>
   </si>
   <si>
-    <t>low</t>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>fear</t>
   </si>
   <si>
     <t>anxiety</t>
   </si>
   <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>fear</t>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>struggling</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>cut</t>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>fight</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -226,175 +250,169 @@
     <t>happy</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
     <t>wish</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>god</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
     <t>giving</t>
   </si>
   <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>team</t>
+    <t>security</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>dear</t>
   </si>
   <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>kind</t>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>easter</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>article</t>
+    <t>yourself</t>
   </si>
   <si>
     <t>helping</t>
@@ -404,6 +422,21 @@
   </si>
   <si>
     <t>check</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
 </sst>
 </file>
@@ -761,7 +794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -769,10 +802,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -851,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -880,13 +913,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -898,10 +931,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="K4">
         <v>0.9696969696969697</v>
@@ -930,13 +963,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9130434782608695</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -951,16 +984,16 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K5">
-        <v>0.95</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L5">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -972,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -980,13 +1013,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8918918918918919</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -998,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K6">
         <v>0.9491525423728814</v>
@@ -1030,13 +1063,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8888888888888888</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1048,10 +1081,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K7">
         <v>0.9444444444444444</v>
@@ -1080,13 +1113,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8823529411764706</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1101,7 +1134,7 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K8">
         <v>0.9375</v>
@@ -1130,13 +1163,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8698630136986302</v>
+        <v>0.88</v>
       </c>
       <c r="C9">
-        <v>254</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>254</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1148,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K9">
         <v>0.9333333333333333</v>
@@ -1201,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K10">
         <v>0.9230769230769231</v>
@@ -1251,16 +1284,16 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K11">
-        <v>0.9166666666666666</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L11">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M11">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1272,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1280,13 +1313,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8620689655172413</v>
+        <v>0.8595890410958904</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1298,19 +1331,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="K12">
-        <v>0.9112271540469974</v>
+        <v>0.9086161879895561</v>
       </c>
       <c r="L12">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M12">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1322,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1351,16 +1384,16 @@
         <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K13">
-        <v>0.9090909090909091</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1372,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1380,13 +1413,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8333333333333334</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1401,16 +1434,16 @@
         <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="K14">
-        <v>0.9084507042253521</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L14">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="M14">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1422,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1430,13 +1463,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7894736842105263</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1451,16 +1484,16 @@
         <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="K15">
-        <v>0.9069767441860465</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L15">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="M15">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1472,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1480,13 +1513,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7826086956521739</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1498,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K16">
-        <v>0.8984375</v>
+        <v>0.890625</v>
       </c>
       <c r="L16">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M16">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1522,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1530,13 +1563,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7826086956521739</v>
+        <v>0.8125</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1548,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K17">
-        <v>0.8962264150943396</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L17">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="M17">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1572,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1580,13 +1613,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.775</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1598,19 +1631,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="K18">
-        <v>0.8947368421052632</v>
+        <v>0.88125</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1622,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1630,13 +1663,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7692307692307693</v>
+        <v>0.8</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1651,16 +1684,16 @@
         <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K19">
-        <v>0.8936170212765957</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1672,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1680,13 +1713,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7666666666666667</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D20">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1698,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K20">
-        <v>0.8928571428571429</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L20">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1722,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1730,13 +1763,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7647058823529411</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1748,19 +1781,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K21">
-        <v>0.8875</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L21">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="M21">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1772,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1780,13 +1813,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7450980392156863</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C22">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1798,10 +1831,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K22">
         <v>0.8611111111111112</v>
@@ -1830,13 +1863,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7368421052631579</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1848,31 +1881,31 @@
         <v>0</v>
       </c>
       <c r="H23">
+        <v>7</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K23">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="L23">
+        <v>31</v>
+      </c>
+      <c r="M23">
+        <v>31</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>5</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K23">
-        <v>0.8448275862068966</v>
-      </c>
-      <c r="L23">
-        <v>49</v>
-      </c>
-      <c r="M23">
-        <v>49</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1880,13 +1913,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.72</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1898,19 +1931,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="K24">
-        <v>0.8421052631578947</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1922,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1930,13 +1963,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.7142857142857143</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C25">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="D25">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1948,19 +1981,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="K25">
-        <v>0.8414634146341463</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L25">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="M25">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1972,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1980,13 +2013,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.7073643410852714</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="C26">
-        <v>365</v>
+        <v>37</v>
       </c>
       <c r="D26">
-        <v>365</v>
+        <v>37</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1998,19 +2031,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K26">
-        <v>0.8253968253968254</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L26">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="M26">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2022,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2030,13 +2063,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.7</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2048,19 +2081,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="K27">
-        <v>0.8235294117647058</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L27">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M27">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2072,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2080,13 +2113,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6949152542372882</v>
+        <v>0.7151162790697675</v>
       </c>
       <c r="C28">
-        <v>41</v>
+        <v>369</v>
       </c>
       <c r="D28">
-        <v>41</v>
+        <v>369</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2098,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K28">
-        <v>0.8214285714285714</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L28">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2122,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2130,13 +2163,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6923076923076923</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C29">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D29">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2148,19 +2181,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="K29">
-        <v>0.8</v>
+        <v>0.8125</v>
       </c>
       <c r="L29">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2172,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2180,13 +2213,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6774193548387096</v>
+        <v>0.7</v>
       </c>
       <c r="C30">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D30">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2198,19 +2231,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K30">
-        <v>0.7948717948717948</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L30">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2222,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2230,7 +2263,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6666666666666666</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C31">
         <v>16</v>
@@ -2248,19 +2281,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K31">
-        <v>0.7916666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L31">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="M31">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2272,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2280,37 +2313,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6666666666666666</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C32">
+        <v>41</v>
+      </c>
+      <c r="D32">
+        <v>41</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>18</v>
       </c>
-      <c r="D32">
-        <v>18</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>9</v>
-      </c>
       <c r="J32" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K32">
-        <v>0.7777777777777778</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2322,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2330,7 +2363,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.65</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C33">
         <v>13</v>
@@ -2348,19 +2381,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K33">
-        <v>0.7727272727272727</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>260</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>260</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2372,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2380,13 +2413,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.6410256410256411</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C34">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D34">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2398,19 +2431,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K34">
-        <v>0.7714285714285715</v>
+        <v>0.75</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2422,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2430,13 +2463,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.6363636363636364</v>
+        <v>0.656084656084656</v>
       </c>
       <c r="C35">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="D35">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2448,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K35">
-        <v>0.7558823529411764</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L35">
-        <v>257</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>257</v>
+        <v>26</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2472,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>83</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2480,13 +2513,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.6241610738255033</v>
+        <v>0.6308724832214765</v>
       </c>
       <c r="C36">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D36">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2498,19 +2531,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K36">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="L36">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="M36">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2522,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2530,13 +2563,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.6129032258064516</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C37">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D37">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2548,19 +2581,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K37">
-        <v>0.75</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L37">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M37">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2572,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2580,13 +2613,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5769230769230769</v>
+        <v>0.5972222222222222</v>
       </c>
       <c r="C38">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="D38">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2598,19 +2631,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K38">
-        <v>0.7457627118644068</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L38">
-        <v>220</v>
+        <v>14</v>
       </c>
       <c r="M38">
-        <v>220</v>
+        <v>14</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2622,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2630,13 +2663,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5694444444444444</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C39">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="D39">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2648,19 +2681,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>155</v>
+        <v>9</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K39">
-        <v>0.74</v>
+        <v>0.7278911564625851</v>
       </c>
       <c r="L39">
-        <v>37</v>
+        <v>214</v>
       </c>
       <c r="M39">
-        <v>37</v>
+        <v>215</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2669,10 +2702,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>13</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2680,13 +2713,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5384615384615384</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2698,19 +2731,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K40">
-        <v>0.7112970711297071</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L40">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="M40">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2722,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>69</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2730,13 +2763,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5272727272727272</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C41">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D41">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2748,19 +2781,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K41">
-        <v>0.7083333333333334</v>
+        <v>0.7112970711297071</v>
       </c>
       <c r="L41">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="M41">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2772,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2780,13 +2813,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.5066666666666667</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C42">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D42">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2798,19 +2831,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K42">
-        <v>0.7078651685393258</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L42">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="M42">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2822,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2830,13 +2863,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.5</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C43">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2848,19 +2881,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="K43">
-        <v>0.7058823529411765</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L43">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="M43">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2872,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2880,13 +2913,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.4864864864864865</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C44">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D44">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2898,19 +2931,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K44">
-        <v>0.696969696969697</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="L44">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M44">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2922,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2930,13 +2963,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.4814814814814815</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C45">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D45">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2948,19 +2981,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K45">
-        <v>0.6956521739130435</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L45">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M45">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2972,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2980,13 +3013,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4666666666666667</v>
+        <v>0.53125</v>
       </c>
       <c r="C46">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D46">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2998,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="H46">
+        <v>15</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K46">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L46">
         <v>16</v>
       </c>
-      <c r="J46" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K46">
-        <v>0.6857142857142857</v>
-      </c>
-      <c r="L46">
-        <v>48</v>
-      </c>
       <c r="M46">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3022,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3030,13 +3063,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.4642857142857143</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C47">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D47">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3048,19 +3081,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K47">
-        <v>0.6808510638297872</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L47">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="M47">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3072,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3080,13 +3113,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.4375</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="C48">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D48">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3098,19 +3131,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="K48">
-        <v>0.6666666666666666</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L48">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M48">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3122,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3130,13 +3163,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.4</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C49">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D49">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3148,19 +3181,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K49">
-        <v>0.6615384615384615</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L49">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M49">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3172,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3180,13 +3213,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.3766233766233766</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C50">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D50">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3198,19 +3231,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="K50">
-        <v>0.6190476190476191</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L50">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M50">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3222,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3230,13 +3263,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.3333333333333333</v>
+        <v>0.4111111111111111</v>
       </c>
       <c r="C51">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D51">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3248,19 +3281,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K51">
-        <v>0.6190476190476191</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M51">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3272,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3280,13 +3313,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.3055555555555556</v>
+        <v>0.3875</v>
       </c>
       <c r="C52">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="D52">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3298,19 +3331,19 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>175</v>
+        <v>49</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K52">
-        <v>0.6153846153846154</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L52">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3322,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3330,13 +3363,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.225</v>
+        <v>0.3506493506493507</v>
       </c>
       <c r="C53">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D53">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3348,10 +3381,10 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K53">
         <v>0.6071428571428571</v>
@@ -3380,13 +3413,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1313672922252011</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C54">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="D54">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3398,19 +3431,19 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>324</v>
+        <v>164</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K54">
-        <v>0.6071428571428571</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L54">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M54">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3422,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3430,13 +3463,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004184100418410041</v>
+        <v>0.1715817694369973</v>
       </c>
       <c r="C55">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D55">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3448,19 +3481,19 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>3094</v>
+        <v>309</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K55">
-        <v>0.5925925925925926</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L55">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M55">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3476,17 +3509,41 @@
       </c>
     </row>
     <row r="56" spans="1:17">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C56">
+        <v>21</v>
+      </c>
+      <c r="D56">
+        <v>21</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>279</v>
+      </c>
       <c r="J56" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="K56">
-        <v>0.5833333333333334</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L56">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M56">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3498,125 +3555,245 @@
         <v>0</v>
       </c>
       <c r="Q56">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.01346801346801347</v>
+      </c>
+      <c r="C57">
+        <v>32</v>
+      </c>
+      <c r="D57">
+        <v>35</v>
+      </c>
+      <c r="E57">
+        <v>0.09</v>
+      </c>
+      <c r="F57">
+        <v>0.91</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>2344</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K57">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L57">
+        <v>16</v>
+      </c>
+      <c r="M57">
+        <v>16</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.006445375443119562</v>
+      </c>
+      <c r="C58">
+        <v>20</v>
+      </c>
+      <c r="D58">
+        <v>24</v>
+      </c>
+      <c r="E58">
+        <v>0.17</v>
+      </c>
+      <c r="F58">
+        <v>0.83</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>3083</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K58">
+        <v>0.5652173913043478</v>
+      </c>
+      <c r="L58">
+        <v>13</v>
+      </c>
+      <c r="M58">
+        <v>13</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
-      <c r="J57" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K57">
-        <v>0.5806451612903226</v>
-      </c>
-      <c r="L57">
+    <row r="59" spans="1:17">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.005639913232104121</v>
+      </c>
+      <c r="C59">
+        <v>13</v>
+      </c>
+      <c r="D59">
+        <v>17</v>
+      </c>
+      <c r="E59">
+        <v>0.24</v>
+      </c>
+      <c r="F59">
+        <v>0.76</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>2292</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K59">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="L59">
+        <v>13</v>
+      </c>
+      <c r="M59">
+        <v>13</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.00469630557294928</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+      <c r="D60">
+        <v>22</v>
+      </c>
+      <c r="E60">
+        <v>0.32</v>
+      </c>
+      <c r="F60">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>3179</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K60">
+        <v>0.5205479452054794</v>
+      </c>
+      <c r="L60">
+        <v>38</v>
+      </c>
+      <c r="M60">
+        <v>38</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.004171494785631518</v>
+      </c>
+      <c r="C61">
         <v>18</v>
       </c>
-      <c r="M57">
-        <v>18</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="J58" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K58">
-        <v>0.5777777777777777</v>
-      </c>
-      <c r="L58">
-        <v>26</v>
-      </c>
-      <c r="M58">
-        <v>26</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="J59" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K59">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L59">
-        <v>24</v>
-      </c>
-      <c r="M59">
-        <v>24</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="J60" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K60">
-        <v>0.5652173913043478</v>
-      </c>
-      <c r="L60">
-        <v>13</v>
-      </c>
-      <c r="M60">
-        <v>13</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
+      <c r="D61">
+        <v>31</v>
+      </c>
+      <c r="E61">
+        <v>0.42</v>
+      </c>
+      <c r="F61">
+        <v>0.5800000000000001</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>4297</v>
+      </c>
       <c r="J61" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="K61">
-        <v>0.5416666666666666</v>
+        <v>0.484375</v>
       </c>
       <c r="L61">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M61">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3628,15 +3805,39 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:17">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>0.003008423586040915</v>
+      </c>
+      <c r="C62">
+        <v>15</v>
+      </c>
+      <c r="D62">
+        <v>25</v>
+      </c>
+      <c r="E62">
+        <v>0.4</v>
+      </c>
+      <c r="F62">
+        <v>0.6</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>4971</v>
+      </c>
       <c r="J62" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="K62">
-        <v>0.5384615384615384</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L62">
         <v>14</v>
@@ -3654,21 +3855,45 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:17">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>0.0029120559114735</v>
+      </c>
+      <c r="C63">
+        <v>15</v>
+      </c>
+      <c r="D63">
+        <v>29</v>
+      </c>
+      <c r="E63">
+        <v>0.48</v>
+      </c>
+      <c r="F63">
+        <v>0.52</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>5136</v>
+      </c>
       <c r="J63" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="K63">
-        <v>0.46875</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L63">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M63">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3680,21 +3905,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="K64">
-        <v>0.4246575342465753</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L64">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M64">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3706,21 +3931,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="K65">
-        <v>0.4102564102564102</v>
+        <v>0.4</v>
       </c>
       <c r="L65">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="M65">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3732,21 +3957,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="K66">
-        <v>0.3157894736842105</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L66">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M66">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3758,21 +3983,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="K67">
-        <v>0.2954545454545455</v>
+        <v>0.2950819672131147</v>
       </c>
       <c r="L67">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M67">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3784,21 +4009,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="K68">
-        <v>0.2711864406779661</v>
+        <v>0.1743119266055046</v>
       </c>
       <c r="L68">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M68">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3810,21 +4035,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>43</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="K69">
-        <v>0.2295081967213115</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="L69">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M69">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3836,33 +4061,163 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>47</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K70">
-        <v>0.1376146788990826</v>
+        <v>0.07027027027027027</v>
       </c>
       <c r="L70">
+        <v>13</v>
+      </c>
+      <c r="M70">
+        <v>13</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K71">
+        <v>0.02742230347349177</v>
+      </c>
+      <c r="L71">
         <v>15</v>
       </c>
-      <c r="M70">
+      <c r="M71">
         <v>15</v>
       </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>94</v>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K72">
+        <v>0.02333333333333333</v>
+      </c>
+      <c r="L72">
+        <v>28</v>
+      </c>
+      <c r="M72">
+        <v>28</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K73">
+        <v>0.006001500375093774</v>
+      </c>
+      <c r="L73">
+        <v>16</v>
+      </c>
+      <c r="M73">
+        <v>23</v>
+      </c>
+      <c r="N73">
+        <v>0.7</v>
+      </c>
+      <c r="O73">
+        <v>0.3</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K74">
+        <v>0.003016241299303944</v>
+      </c>
+      <c r="L74">
+        <v>13</v>
+      </c>
+      <c r="M74">
+        <v>31</v>
+      </c>
+      <c r="N74">
+        <v>0.42</v>
+      </c>
+      <c r="O74">
+        <v>0.5800000000000001</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K75">
+        <v>0.002718446601941748</v>
+      </c>
+      <c r="L75">
+        <v>14</v>
+      </c>
+      <c r="M75">
+        <v>29</v>
+      </c>
+      <c r="N75">
+        <v>0.48</v>
+      </c>
+      <c r="O75">
+        <v>0.52</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>5136</v>
       </c>
     </row>
   </sheetData>
